--- a/Examples/TestSynchronisation/Test_3Bus.xlsx
+++ b/Examples/TestSynchronisation/Test_3Bus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\TestSynchronisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696BFF03-D613-4694-BF67-692D72FCB8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6A24EA-44C6-45DA-8297-A5917753779D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -640,7 +640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1239,7 +1239,7 @@
         <v>26</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">

--- a/Examples/TestSynchronisation/Test_3Bus.xlsx
+++ b/Examples/TestSynchronisation/Test_3Bus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\TestSynchronisation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRep\Simplus-Grid-Tool\Examples\TestSynchronisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6A24EA-44C6-45DA-8297-A5917753779D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB12BA1-294E-4BEB-AF76-F9353C94467C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -239,20 +239,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -261,7 +261,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -269,7 +269,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -277,7 +277,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -285,13 +285,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -336,12 +336,12 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -349,7 +349,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -640,23 +640,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="11.19921875" customWidth="1"/>
-    <col min="9" max="9" width="10.796875" customWidth="1"/>
-    <col min="10" max="10" width="11.1328125" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -694,7 +694,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -823,30 +823,30 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.796875" customWidth="1"/>
-    <col min="2" max="2" width="29.53125" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="12.46484375" customWidth="1"/>
-    <col min="6" max="6" width="13.53125" customWidth="1"/>
-    <col min="7" max="7" width="13.796875" customWidth="1"/>
-    <col min="8" max="8" width="15.1328125" customWidth="1"/>
-    <col min="9" max="9" width="18.796875" customWidth="1"/>
-    <col min="10" max="10" width="18.53125" customWidth="1"/>
-    <col min="11" max="11" width="17.1328125" customWidth="1"/>
-    <col min="12" max="12" width="17.86328125" customWidth="1"/>
-    <col min="13" max="13" width="14.46484375" customWidth="1"/>
-    <col min="14" max="14" width="13.1328125" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" customWidth="1"/>
+    <col min="8" max="8" width="15.08984375" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" customWidth="1"/>
+    <col min="11" max="11" width="17.08984375" customWidth="1"/>
+    <col min="12" max="12" width="17.81640625" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="14" max="14" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -857,7 +857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -879,7 +879,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -902,7 +902,7 @@
       <c r="G4" s="7"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -929,33 +929,33 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="5" max="5" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.53125" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -978,7 +978,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -1041,18 +1041,18 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="7" max="7" width="14.86328125" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -1090,20 +1090,20 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.53125" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1147,21 +1147,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="30.1328125" customWidth="1"/>
+    <col min="1" max="1" width="30.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1218,23 +1218,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>44</v>
       </c>
